--- a/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
+++ b/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
@@ -291,6 +291,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,15 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -344,8 +344,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -381,6 +381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -413,7 +414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -476,8 +477,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="367921"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -513,6 +514,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -557,7 +559,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -927,28 +929,28 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1002,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F6:F10" si="0">(B7+D7)/2</f>
+        <f t="shared" ref="F7:F10" si="0">(B7+D7)/2</f>
         <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1098,7 +1100,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1109,7 @@
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
@@ -1120,40 +1122,40 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1239,7 +1241,7 @@
         <v>630</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H7:H11" si="2">ABS(F8-$F$14)</f>
+        <f t="shared" ref="H8:H11" si="2">ABS(F8-$F$14)</f>
         <v>3</v>
       </c>
       <c r="I8" s="3">
@@ -1338,11 +1340,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -1415,48 +1417,48 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1558,7 +1560,7 @@
         <v>630</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8:H12" si="4">ABS(F8-$F$14)</f>
+        <f t="shared" ref="H8:H11" si="4">ABS(F8-$F$14)</f>
         <v>3</v>
       </c>
       <c r="I8" s="3">
@@ -1689,11 +1691,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -1750,22 +1752,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">

--- a/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
+++ b/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="A. Jangkauan (Range)" sheetId="1" r:id="rId1"/>
     <sheet name="B. Simpangan Rata-rata" sheetId="2" r:id="rId2"/>
     <sheet name="C. Simpangan baku" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
+    <sheet name="D. Ragam (variansi)" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Data</t>
   </si>
@@ -61,41 +61,477 @@
     <t>Xi</t>
   </si>
   <si>
-    <t>fi.Xi</t>
-  </si>
-  <si>
     <t>Rata Rata</t>
-  </si>
-  <si>
-    <t>|xi-Zx|</t>
-  </si>
-  <si>
-    <t>fi.|xi-Zx|</t>
-  </si>
-  <si>
-    <t>(Xi-Xbar)^2</t>
-  </si>
-  <si>
-    <t>fi . (Xi-Xbar)^2</t>
   </si>
   <si>
     <t>Rata rata baku</t>
   </si>
   <si>
-    <t>C. Rata rata baku Devias standar</t>
+    <t>x</t>
   </si>
   <si>
-    <t>xi</t>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
   </si>
   <si>
-    <t>Fi.xi</t>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>| x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅ |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> .| x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅ |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .| x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - x̅ |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>C. Rata rata baku Deviasi standar</t>
+  </si>
+  <si>
+    <t>D. Ragam (Variansi</t>
+  </si>
+  <si>
+    <t>Variansi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +546,71 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -292,7 +793,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,6 +820,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,23 +846,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245579</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175177</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3821181" cy="1292085"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5953125" y="2047875"/>
-              <a:ext cx="914400" cy="264560"/>
+              <a:off x="5670688" y="1210503"/>
+              <a:ext cx="3821181" cy="1292085"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -376,54 +884,297 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
+                    <m:jc m:val="center"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
+                    <m:r>
+                      <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑆𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="id-ID" sz="1100" i="1">
+                          <a:rPr lang="id-ID" sz="2400" i="1">
                             <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="id-ID" sz="2400" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="id-ID" sz="2400" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>|</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>|</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="id-ID" sz="2400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="id-ID" sz="2400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="2400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:den>
+                    </m:f>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5953125" y="2047875"/>
-              <a:ext cx="914400" cy="264560"/>
+              <a:off x="5670688" y="1210503"/>
+              <a:ext cx="3821181" cy="1292085"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -445,18 +1196,190 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥 ̅</a:t>
-              </a:r>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑆𝑅= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t> (∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖 |𝑥_𝑖−𝑥 ̅|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>〗)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -472,13 +1395,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="914400" cy="367921"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="7153275" cy="3068404"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -486,8 +1409,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5953125" y="2047875"/>
-              <a:ext cx="914400" cy="367921"/>
+              <a:off x="5724525" y="295275"/>
+              <a:ext cx="7153275" cy="3068404"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -509,57 +1432,738 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="1">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="id-ID" sz="2400" i="1">
+                <a:latin typeface="Cambria Math"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400"/>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400"/>
+                <a:t>=</a:t>
+              </a:r>
               <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="id-ID" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:eqArr>
-                          <m:eqArrPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:eqArrPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
-                              </a:rPr>
-                              <m:t>𝑥</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:e/>
-                        </m:eqArr>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="id-ID" sz="2400" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="id-ID" sz="2400" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="23"/>
+                                </m:rPr>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝑓</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                              <m:sSup>
+                                <m:sSupPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSupPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>(</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:acc>
+                                    <m:accPr>
+                                      <m:chr m:val="̅"/>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:accPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                  </m:acc>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>)</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sup>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sup>
+                              </m:sSup>
+                            </m:e>
+                          </m:nary>
+                        </m:num>
+                        <m:den>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="23"/>
+                                </m:rPr>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝑓</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:nary>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400"/>
+                <a:t> Untuk n &lt; 30 atau merupakan sampel</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="id-ID" sz="2400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="id-ID" sz="2400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="23"/>
+                                </m:rPr>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑓</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                              <m:sSup>
+                                <m:sSupPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSupPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>(</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="+mn-lt"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="+mn-lt"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="+mn-lt"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:acc>
+                                    <m:accPr>
+                                      <m:chr m:val="̅"/>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="+mn-lt"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:accPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="+mn-lt"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                  </m:acc>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>)</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sup>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sup>
+                              </m:sSup>
+                            </m:e>
+                          </m:nary>
+                        </m:num>
+                        <m:den>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="23"/>
+                                </m:rPr>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑓</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:nary>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Untuk n &gt; 30 atau merupakan populasi</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="2400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -567,8 +2171,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5953125" y="2047875"/>
-              <a:ext cx="914400" cy="367921"/>
+              <a:off x="5724525" y="295275"/>
+              <a:ext cx="7153275" cy="3068404"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -590,24 +2194,787 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="id-ID" sz="1100" i="0">
+                <a:rPr lang="id-ID" sz="2400" i="1">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="id-ID" sz="2400" i="1">
+                <a:latin typeface="Cambria Math"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400"/>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>█(𝑥@)) ̅</a:t>
-              </a:r>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
+                <a:t>√((∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖=1)^𝑛▒〖𝑓_𝑖 〖(𝑥_𝑖−𝑥 ̅)〗^2 〗)/(∑24_(𝑖=1)^𝑛▒〖𝑓_𝑖−1〗))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400"/>
+                <a:t> Untuk n &lt; 30 atau merupakan sampel</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√((∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(𝑖=1)^𝑛▒〖𝑓_𝑖 〖(𝑥_𝑖−𝑥 ̅)〗^2 〗)/(∑_(𝑖=1)^𝑛▒𝑓_𝑖 ))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Untuk n &gt; 30 atau merupakan populasi</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="2400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2228850" cy="1511504"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5886451" y="457200"/>
+              <a:ext cx="2228850" cy="1511504"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="1">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="id-ID" sz="2400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="id-ID" sz="2400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <m:rPr>
+                              <m:brk m:alnAt="23"/>
+                            </m:rPr>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑓</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>(</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:acc>
+                                <m:accPr>
+                                  <m:chr m:val="̅"/>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:accPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:acc>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="id-ID" sz="2400" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <m:rPr>
+                              <m:brk m:alnAt="23"/>
+                            </m:rPr>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="id-ID" sz="2400" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑓</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="id-ID" sz="2400" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5886451" y="457200"/>
+              <a:ext cx="2228850" cy="1511504"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="1">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>Rumus:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(𝑖=1)^𝑛▒〖𝑓_𝑖 〖(𝑥_𝑖−𝑥 ̅)〗^2 〗)/(∑_(𝑖=1)^𝑛▒𝑓_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -907,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,11 +3296,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
@@ -942,15 +3309,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1097,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1113,7 +3480,8 @@
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1122,41 +3490,41 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,11 +3708,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -1358,9 +3726,20 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <f>G12/E12</f>
@@ -1374,6 +3753,304 @@
       <c r="F15" s="1">
         <f>I12/E12</f>
         <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(B6+D6)/2</f>
+        <v>45</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E6*F6</f>
+        <v>135</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(F6-$F$14)^2</f>
+        <v>441</v>
+      </c>
+      <c r="I6" s="3">
+        <f>E6*H6</f>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <f>(B7+D7)/2</f>
+        <v>54</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G11" si="0">E7*F7</f>
+        <v>378</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(F7-$F$14)^2</f>
+        <v>144</v>
+      </c>
+      <c r="I7" s="3">
+        <f>E7*H7</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F11" si="1">(B8+D8)/2</f>
+        <v>63</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(F8-$F$14)^2</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="3">
+        <f>E8*H8</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>68</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(F9-$F$14)^2</f>
+        <v>36</v>
+      </c>
+      <c r="I9" s="3">
+        <f>E9*H9</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(F10-$F$14)^2</f>
+        <v>225</v>
+      </c>
+      <c r="I10" s="3">
+        <f>E10*H10</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>86</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>94</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(F11-$F$14)^2</f>
+        <v>576</v>
+      </c>
+      <c r="I11" s="3">
+        <f>E11*H11</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="3">
+        <f>SUM(E6:E11)</f>
+        <v>36</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUM(G6:G11)</f>
+        <v>2376</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUM(I6:I11)</f>
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <f>G12/E12</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SQRT(I12/E12)</f>
+        <v>11.811011811017716</v>
       </c>
     </row>
   </sheetData>
@@ -1387,12 +4064,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1401,68 +4078,58 @@
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>41</v>
       </c>
@@ -1483,24 +4150,16 @@
         <f>E6*F6</f>
         <v>135</v>
       </c>
-      <c r="H6" s="3">
-        <f>ABS(F6-$F$14)</f>
-        <v>21</v>
+      <c r="H6" s="4">
+        <f>(F6-$E$14)^2</f>
+        <v>441</v>
       </c>
       <c r="I6" s="3">
         <f>E6*H6</f>
-        <v>63</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(F6-$F$14)^2</f>
-        <v>441</v>
-      </c>
-      <c r="K6" s="3">
-        <f>E6*J6</f>
         <v>1323</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>50</v>
       </c>
@@ -1521,24 +4180,16 @@
         <f t="shared" ref="G7:G11" si="0">E7*F7</f>
         <v>378</v>
       </c>
-      <c r="H7" s="3">
-        <f>ABS(F7-$F$14)</f>
-        <v>12</v>
+      <c r="H7" s="4">
+        <f>(F7-$E$14)^2</f>
+        <v>144</v>
       </c>
       <c r="I7" s="3">
         <f>E7*H7</f>
-        <v>84</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" ref="J7:J11" si="1">(F7-$F$14)^2</f>
-        <v>144</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" ref="K7:K11" si="2">E7*J7</f>
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>59</v>
       </c>
@@ -1552,31 +4203,23 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F11" si="3">(B8+D8)/2</f>
+        <f t="shared" ref="F8:F11" si="1">(B8+D8)/2</f>
         <v>63</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" ref="H8:H11" si="4">ABS(F8-$F$14)</f>
-        <v>3</v>
+      <c r="H8" s="4">
+        <f>(F8-$E$14)^2</f>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <f>E8*H8</f>
-        <v>30</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>68</v>
       </c>
@@ -1590,31 +4233,23 @@
         <v>9</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
+      <c r="H9" s="4">
+        <f>(F9-$E$14)^2</f>
+        <v>36</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I11" si="5">E9*H9</f>
-        <v>54</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f>E9*H9</f>
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>77</v>
       </c>
@@ -1628,31 +4263,23 @@
         <v>5</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>15</v>
+      <c r="H10" s="4">
+        <f>(F10-$E$14)^2</f>
+        <v>225</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f>E10*H10</f>
         <v>1125</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>86</v>
       </c>
@@ -1666,36 +4293,28 @@
         <v>2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
-        <v>24</v>
+      <c r="H11" s="4">
+        <f>(F11-$E$14)^2</f>
+        <v>576</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f>E11*H11</f>
         <v>1152</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -1706,29 +4325,25 @@
       </c>
       <c r="I12" s="3">
         <f>SUM(I6:I11)</f>
-        <v>354</v>
-      </c>
-      <c r="K12" s="3">
-        <f>SUM(K6:K11)</f>
         <v>5022</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
         <f>G12/E12</f>
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <f>SQRT(K12/E12)</f>
-        <v>11.811011811017716</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <f>I12/E12</f>
+        <v>139.5</v>
       </c>
     </row>
   </sheetData>
@@ -1738,199 +4353,6 @@
     <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f>(B4+D4)/2</f>
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <f>E4*F4</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>58</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">(B5+D5)/2</f>
-        <v>54</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G9" si="1">E5*F5</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>67</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>68</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>76</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>648</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>77</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>86</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>94</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <f>SUM(E4:E9)</f>
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G4:G9)</f>
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <f>G10/E10</f>
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
+++ b/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/Ukuran penyebaran data dari data kelompok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A. Jangkauan (Range)" sheetId="1" r:id="rId1"/>
@@ -799,6 +799,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,15 +822,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,8 +852,8 @@
       <xdr:rowOff>175177</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3821181" cy="1292085"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -889,7 +889,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="2400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
@@ -1060,7 +1059,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1076,7 +1075,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1088,7 +1087,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1102,7 +1101,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1118,7 +1117,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1131,7 +1130,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1145,7 +1144,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1165,7 +1164,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1400,8 +1399,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7153275" cy="3068404"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1450,7 +1449,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="el-GR" sz="2400"/>
                 <a:t>σ</a:t>
@@ -1705,7 +1703,6 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
             <a:p>
@@ -1761,7 +1758,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1777,7 +1774,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1793,7 +1790,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1809,7 +1806,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1821,7 +1818,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1835,7 +1832,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1851,7 +1848,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1864,7 +1861,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1878,7 +1875,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1894,7 +1891,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1907,7 +1904,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1921,7 +1918,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="+mn-lt"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1934,7 +1931,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="+mn-lt"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1948,7 +1945,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="+mn-lt"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1962,7 +1959,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1977,7 +1974,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="+mn-lt"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1990,7 +1987,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="+mn-lt"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -2004,7 +2001,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2018,7 +2015,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2039,7 +2036,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2055,7 +2052,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2067,7 +2064,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2081,7 +2078,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2097,7 +2094,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2110,7 +2107,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2124,7 +2121,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2157,13 +2154,12 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2347,8 +2343,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228850" cy="1511504"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2392,7 +2388,6 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="id-ID" sz="2400"/>
             </a:p>
             <a:p>
@@ -2459,7 +2454,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2475,7 +2470,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2491,7 +2486,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2503,7 +2498,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2517,7 +2512,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2533,7 +2528,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2546,7 +2541,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2560,7 +2555,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2576,7 +2571,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2589,7 +2584,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2603,7 +2598,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2616,7 +2611,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2630,7 +2625,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2644,7 +2639,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2659,7 +2654,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2672,7 +2667,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2686,7 +2681,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2700,7 +2695,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2721,7 +2716,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2737,7 +2732,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2749,7 +2744,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2763,7 +2758,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2779,7 +2774,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2792,7 +2787,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2806,7 +2801,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2837,7 +2832,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3274,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3296,11 +3291,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
@@ -3309,11 +3304,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3490,11 +3485,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
@@ -3506,11 +3501,11 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -3520,10 +3515,10 @@
       <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3708,11 +3703,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -3730,7 +3725,7 @@
       <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3756,8 +3751,8 @@
       </c>
     </row>
     <row r="18" spans="7:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3775,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3799,11 +3794,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
@@ -3815,11 +3810,11 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -3858,11 +3853,11 @@
         <v>135</v>
       </c>
       <c r="H6" s="4">
-        <f>(F6-$F$14)^2</f>
+        <f t="shared" ref="H6:H11" si="0">(F6-$F$14)^2</f>
         <v>441</v>
       </c>
       <c r="I6" s="3">
-        <f>E6*H6</f>
+        <f t="shared" ref="I6:I11" si="1">E6*H6</f>
         <v>1323</v>
       </c>
     </row>
@@ -3884,15 +3879,15 @@
         <v>54</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G11" si="0">E7*F7</f>
+        <f t="shared" ref="G7:G11" si="2">E7*F7</f>
         <v>378</v>
       </c>
       <c r="H7" s="4">
-        <f>(F7-$F$14)^2</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="I7" s="3">
-        <f>E7*H7</f>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
     </row>
@@ -3910,19 +3905,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F11" si="1">(B8+D8)/2</f>
+        <f t="shared" ref="F8:F11" si="3">(B8+D8)/2</f>
         <v>63</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="H8" s="4">
-        <f>(F8-$F$14)^2</f>
         <v>9</v>
       </c>
       <c r="I8" s="3">
-        <f>E8*H8</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -3940,19 +3935,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="H9" s="4">
-        <f>(F9-$F$14)^2</f>
-        <v>36</v>
-      </c>
-      <c r="I9" s="3">
-        <f>E9*H9</f>
         <v>324</v>
       </c>
     </row>
@@ -3970,19 +3965,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="H10" s="4">
-        <f>(F10-$F$14)^2</f>
-        <v>225</v>
-      </c>
-      <c r="I10" s="3">
-        <f>E10*H10</f>
         <v>1125</v>
       </c>
     </row>
@@ -4000,28 +3995,28 @@
         <v>2</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="H11" s="4">
-        <f>(F11-$F$14)^2</f>
-        <v>576</v>
-      </c>
-      <c r="I11" s="3">
-        <f>E11*H11</f>
         <v>1152</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
@@ -4069,7 +4064,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4092,11 +4087,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
@@ -4108,11 +4103,11 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -4151,11 +4146,11 @@
         <v>135</v>
       </c>
       <c r="H6" s="4">
-        <f>(F6-$E$14)^2</f>
+        <f t="shared" ref="H6:H11" si="0">(F6-$E$14)^2</f>
         <v>441</v>
       </c>
       <c r="I6" s="3">
-        <f>E6*H6</f>
+        <f t="shared" ref="I6:I11" si="1">E6*H6</f>
         <v>1323</v>
       </c>
     </row>
@@ -4177,15 +4172,15 @@
         <v>54</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G11" si="0">E7*F7</f>
+        <f t="shared" ref="G7:G11" si="2">E7*F7</f>
         <v>378</v>
       </c>
       <c r="H7" s="4">
-        <f>(F7-$E$14)^2</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="I7" s="3">
-        <f>E7*H7</f>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
     </row>
@@ -4203,19 +4198,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F11" si="1">(B8+D8)/2</f>
+        <f t="shared" ref="F8:F11" si="3">(B8+D8)/2</f>
         <v>63</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="H8" s="4">
-        <f>(F8-$E$14)^2</f>
         <v>9</v>
       </c>
       <c r="I8" s="3">
-        <f>E8*H8</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4233,19 +4228,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="H9" s="4">
-        <f>(F9-$E$14)^2</f>
-        <v>36</v>
-      </c>
-      <c r="I9" s="3">
-        <f>E9*H9</f>
         <v>324</v>
       </c>
     </row>
@@ -4263,19 +4258,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="H10" s="4">
-        <f>(F10-$E$14)^2</f>
-        <v>225</v>
-      </c>
-      <c r="I10" s="3">
-        <f>E10*H10</f>
         <v>1125</v>
       </c>
     </row>
@@ -4293,28 +4288,28 @@
         <v>2</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="H11" s="4">
-        <f>(F11-$E$14)^2</f>
-        <v>576</v>
-      </c>
-      <c r="I11" s="3">
-        <f>E11*H11</f>
         <v>1152</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3">
         <f>SUM(E6:E11)</f>
         <v>36</v>
